--- a/匹配结果对比.xlsx
+++ b/匹配结果对比.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>主要诊断疾病编码</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -504,7 +504,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -530,7 +530,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -556,7 +556,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院科室</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -566,7 +566,7 @@
         <v>0.9974036812782288</v>
       </c>
       <c r="F5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -582,7 +582,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>外科</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -608,7 +608,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>婚姻状况</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -634,7 +634,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>入院时间</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -660,7 +660,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>内科</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -670,7 +670,7 @@
         <v>0.9985468983650208</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -686,7 +686,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>入院时间</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -712,7 +712,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -722,7 +722,7 @@
         <v>0.8865423798561096</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -738,7 +738,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -764,7 +764,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -774,7 +774,7 @@
         <v>0.8866879343986511</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -790,7 +790,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -800,7 +800,7 @@
         <v>0.8789249062538147</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -816,7 +816,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -826,7 +826,7 @@
         <v>0.8105681538581848</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -842,7 +842,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -852,7 +852,7 @@
         <v>0.8199823498725891</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -868,7 +868,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -878,7 +878,7 @@
         <v>0.8070065379142761</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -894,7 +894,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -904,7 +904,7 @@
         <v>0.785780131816864</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -920,7 +920,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -930,7 +930,7 @@
         <v>0.7908895611763</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -946,7 +946,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>内科</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -956,7 +956,7 @@
         <v>0.8073504567146301</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -972,7 +972,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -982,7 +982,7 @@
         <v>0.7891352772712708</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -998,7 +998,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1008,7 +1008,7 @@
         <v>0.7650132179260254</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1034,7 +1034,7 @@
         <v>0.8015071749687195</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1086,7 +1086,7 @@
         <v>0.8016735911369324</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1112,7 +1112,7 @@
         <v>0.7828049063682556</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1138,7 +1138,7 @@
         <v>0.7957019209861755</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1164,7 +1164,7 @@
         <v>0.7855022549629211</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1190,7 +1190,7 @@
         <v>0.797119140625</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1216,7 +1216,7 @@
         <v>0.7799285054206848</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1320,7 +1320,7 @@
         <v>0.7812612652778625</v>
       </c>
       <c r="F34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1424,7 +1424,7 @@
         <v>0.796694815158844</v>
       </c>
       <c r="F38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1450,7 +1450,7 @@
         <v>0.7955037951469421</v>
       </c>
       <c r="F39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1476,7 +1476,7 @@
         <v>0.7750174403190613</v>
       </c>
       <c r="F40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1502,7 +1502,7 @@
         <v>0.7945542335510254</v>
       </c>
       <c r="F41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1528,7 +1528,7 @@
         <v>0.7818431854248047</v>
       </c>
       <c r="F42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1554,7 +1554,7 @@
         <v>0.7915849685668945</v>
       </c>
       <c r="F43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1606,7 +1606,7 @@
         <v>0.7936806082725525</v>
       </c>
       <c r="F45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1632,7 +1632,7 @@
         <v>0.7788107395172119</v>
       </c>
       <c r="F46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1658,7 +1658,7 @@
         <v>0.7565029263496399</v>
       </c>
       <c r="F47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1684,7 +1684,7 @@
         <v>0.7457501292228699</v>
       </c>
       <c r="F48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1710,7 +1710,7 @@
         <v>0.7592805027961731</v>
       </c>
       <c r="F49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1736,7 +1736,7 @@
         <v>0.7456657290458679</v>
       </c>
       <c r="F50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -1762,7 +1762,7 @@
         <v>0.7475160956382751</v>
       </c>
       <c r="F51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -1788,7 +1788,7 @@
         <v>0.7375087738037109</v>
       </c>
       <c r="F52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -1814,7 +1814,7 @@
         <v>0.748437225818634</v>
       </c>
       <c r="F53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -1840,7 +1840,7 @@
         <v>0.7361124157905579</v>
       </c>
       <c r="F54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -1944,7 +1944,7 @@
         <v>0.7830069661140442</v>
       </c>
       <c r="F58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -1970,7 +1970,7 @@
         <v>0.7607857584953308</v>
       </c>
       <c r="F59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -2022,7 +2022,7 @@
         <v>0.7615904808044434</v>
       </c>
       <c r="F61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -2048,7 +2048,7 @@
         <v>0.756580650806427</v>
       </c>
       <c r="F62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2064,7 +2064,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -2074,7 +2074,7 @@
         <v>0.7480130195617676</v>
       </c>
       <c r="F63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -2126,7 +2126,7 @@
         <v>0.752051055431366</v>
       </c>
       <c r="F65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -2152,7 +2152,7 @@
         <v>0.7370596528053284</v>
       </c>
       <c r="F66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -2230,7 +2230,7 @@
         <v>0.785830020904541</v>
       </c>
       <c r="F69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -2256,7 +2256,7 @@
         <v>0.7759068608283997</v>
       </c>
       <c r="F70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2272,7 +2272,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -2360,7 +2360,7 @@
         <v>0.7766978144645691</v>
       </c>
       <c r="F74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -2386,7 +2386,7 @@
         <v>0.7986037731170654</v>
       </c>
       <c r="F75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -2402,7 +2402,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -2428,7 +2428,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -2438,7 +2438,7 @@
         <v>0.7965192794799805</v>
       </c>
       <c r="F77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -2464,7 +2464,7 @@
         <v>0.7844076156616211</v>
       </c>
       <c r="F78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -2490,7 +2490,7 @@
         <v>0.775037944316864</v>
       </c>
       <c r="F79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>离院方式</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -2542,7 +2542,7 @@
         <v>0.7798853516578674</v>
       </c>
       <c r="F81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -2568,7 +2568,7 @@
         <v>0.7779614329338074</v>
       </c>
       <c r="F82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -2594,7 +2594,7 @@
         <v>0.777979850769043</v>
       </c>
       <c r="F83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -2620,7 +2620,7 @@
         <v>0.757645845413208</v>
       </c>
       <c r="F84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -2636,7 +2636,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -2646,7 +2646,7 @@
         <v>0.7815952301025391</v>
       </c>
       <c r="F85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -2672,7 +2672,7 @@
         <v>0.7664945125579834</v>
       </c>
       <c r="F86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -2688,7 +2688,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -2698,7 +2698,7 @@
         <v>0.7710261344909668</v>
       </c>
       <c r="F87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -2714,7 +2714,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -2724,7 +2724,7 @@
         <v>0.747864305973053</v>
       </c>
       <c r="F88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -2740,7 +2740,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -2750,7 +2750,7 @@
         <v>0.7771738171577454</v>
       </c>
       <c r="F89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -2776,7 +2776,7 @@
         <v>0.7609171271324158</v>
       </c>
       <c r="F90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -2802,7 +2802,7 @@
         <v>0.7658155560493469</v>
       </c>
       <c r="F91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -2818,7 +2818,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -2828,7 +2828,7 @@
         <v>0.7484610676765442</v>
       </c>
       <c r="F92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -2854,7 +2854,7 @@
         <v>0.7723979949951172</v>
       </c>
       <c r="F93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -2870,7 +2870,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -2880,7 +2880,7 @@
         <v>0.7623345255851746</v>
       </c>
       <c r="F94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -2906,7 +2906,7 @@
         <v>0.8054315447807312</v>
       </c>
       <c r="F95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -2922,7 +2922,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -2932,7 +2932,7 @@
         <v>0.7721876502037048</v>
       </c>
       <c r="F96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -2948,7 +2948,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -2958,7 +2958,7 @@
         <v>0.8101032376289368</v>
       </c>
       <c r="F97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -2984,7 +2984,7 @@
         <v>0.7999274134635925</v>
       </c>
       <c r="F98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -3010,7 +3010,7 @@
         <v>0.7591528296470642</v>
       </c>
       <c r="F99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -3036,7 +3036,7 @@
         <v>0.752425491809845</v>
       </c>
       <c r="F100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3052,7 +3052,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -3062,7 +3062,7 @@
         <v>0.7645277976989746</v>
       </c>
       <c r="F101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -3078,7 +3078,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -3088,7 +3088,7 @@
         <v>0.750819981098175</v>
       </c>
       <c r="F102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -3130,7 +3130,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -3182,7 +3182,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断诊断名称</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -3218,7 +3218,7 @@
         <v>0.8082452416419983</v>
       </c>
       <c r="F107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -3234,7 +3234,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断诊断名称</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -3244,7 +3244,7 @@
         <v>0.7925837635993958</v>
       </c>
       <c r="F108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -3260,7 +3260,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断诊断名称</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -3270,7 +3270,7 @@
         <v>0.8101913332939148</v>
       </c>
       <c r="F109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -3286,7 +3286,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断诊断名称</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -3312,7 +3312,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -3322,7 +3322,7 @@
         <v>0.7424471974372864</v>
       </c>
       <c r="F111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -3338,7 +3338,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -3348,7 +3348,7 @@
         <v>0.7302805781364441</v>
       </c>
       <c r="F112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断诊断名称</t>
         </is>
       </c>
       <c r="D113" t="n">
@@ -3390,7 +3390,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断诊断名称</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -3426,7 +3426,7 @@
         <v>0.7756631970405579</v>
       </c>
       <c r="F115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -3452,7 +3452,7 @@
         <v>0.7694341540336609</v>
       </c>
       <c r="F116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -3478,7 +3478,7 @@
         <v>0.7850215435028076</v>
       </c>
       <c r="F117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -3494,7 +3494,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D118" t="n">
@@ -3504,7 +3504,7 @@
         <v>0.7807192206382751</v>
       </c>
       <c r="F118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D119" t="n">
@@ -3530,7 +3530,7 @@
         <v>0.7755389213562012</v>
       </c>
       <c r="F119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -3556,7 +3556,7 @@
         <v>0.7775203585624695</v>
       </c>
       <c r="F120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -3572,7 +3572,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D121" t="n">
@@ -3582,7 +3582,7 @@
         <v>0.7844977378845215</v>
       </c>
       <c r="F121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D122" t="n">
@@ -3608,7 +3608,7 @@
         <v>0.7785537838935852</v>
       </c>
       <c r="F122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -3624,7 +3624,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -3634,7 +3634,7 @@
         <v>0.7734866738319397</v>
       </c>
       <c r="F123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -3650,7 +3650,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D124" t="n">
@@ -3660,7 +3660,7 @@
         <v>0.7630925178527832</v>
       </c>
       <c r="F124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D125" t="n">
@@ -3686,7 +3686,7 @@
         <v>0.7833665013313293</v>
       </c>
       <c r="F125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -3702,7 +3702,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D126" t="n">
@@ -3712,7 +3712,7 @@
         <v>0.7766905426979065</v>
       </c>
       <c r="F126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -3728,7 +3728,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D127" t="n">
@@ -3738,7 +3738,7 @@
         <v>0.7983586192131042</v>
       </c>
       <c r="F127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -3754,7 +3754,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D128" t="n">
@@ -3764,7 +3764,7 @@
         <v>0.7723372578620911</v>
       </c>
       <c r="F128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -3790,7 +3790,7 @@
         <v>0.8057014346122742</v>
       </c>
       <c r="F129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -3806,7 +3806,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -3816,7 +3816,7 @@
         <v>0.802030086517334</v>
       </c>
       <c r="F130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -3842,7 +3842,7 @@
         <v>0.8067340850830078</v>
       </c>
       <c r="F131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -3858,7 +3858,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -3894,7 +3894,7 @@
         <v>0.8135231137275696</v>
       </c>
       <c r="F133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D134" t="n">
@@ -3920,7 +3920,7 @@
         <v>0.8106943964958191</v>
       </c>
       <c r="F134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -3936,7 +3936,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -3962,7 +3962,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -3988,7 +3988,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D137" t="n">
@@ -4014,7 +4014,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -4040,7 +4040,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D139" t="n">
@@ -4092,7 +4092,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D141" t="n">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -4144,7 +4144,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -4154,7 +4154,7 @@
         <v>0.7544951438903809</v>
       </c>
       <c r="F143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -4170,7 +4170,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D144" t="n">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D145" t="n">
@@ -4206,7 +4206,7 @@
         <v>0.7666367888450623</v>
       </c>
       <c r="F145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -4222,7 +4222,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D146" t="n">
@@ -4232,7 +4232,7 @@
         <v>0.7664200663566589</v>
       </c>
       <c r="F146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -4248,7 +4248,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D147" t="n">
@@ -4258,7 +4258,7 @@
         <v>0.7621569037437439</v>
       </c>
       <c r="F147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -4274,7 +4274,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -4300,7 +4300,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D149" t="n">
@@ -4310,7 +4310,7 @@
         <v>0.7690766453742981</v>
       </c>
       <c r="F149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -4326,7 +4326,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D150" t="n">
@@ -4336,7 +4336,7 @@
         <v>0.7650265097618103</v>
       </c>
       <c r="F150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D151" t="n">
@@ -4362,7 +4362,7 @@
         <v>0.7667699456214905</v>
       </c>
       <c r="F151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -4378,7 +4378,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D152" t="n">
@@ -4388,7 +4388,7 @@
         <v>0.747208833694458</v>
       </c>
       <c r="F152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -4404,7 +4404,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D153" t="n">
@@ -4414,7 +4414,7 @@
         <v>0.7746427059173584</v>
       </c>
       <c r="F153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -4430,7 +4430,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D154" t="n">
@@ -4440,7 +4440,7 @@
         <v>0.7755177021026611</v>
       </c>
       <c r="F154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D155" t="n">
@@ -4466,7 +4466,7 @@
         <v>0.773785412311554</v>
       </c>
       <c r="F155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -4482,7 +4482,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D156" t="n">
@@ -4492,7 +4492,7 @@
         <v>0.7679824829101562</v>
       </c>
       <c r="F156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D157" t="n">
@@ -4518,7 +4518,7 @@
         <v>0.7827903628349304</v>
       </c>
       <c r="F157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -4534,7 +4534,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D158" t="n">
@@ -4544,7 +4544,7 @@
         <v>0.7813684344291687</v>
       </c>
       <c r="F158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -4560,7 +4560,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D159" t="n">
@@ -4570,7 +4570,7 @@
         <v>0.77418452501297</v>
       </c>
       <c r="F159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -4586,7 +4586,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D160" t="n">
@@ -4596,7 +4596,7 @@
         <v>0.7582524418830872</v>
       </c>
       <c r="F160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -4612,7 +4612,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D161" t="n">
@@ -4622,7 +4622,7 @@
         <v>0.7794792056083679</v>
       </c>
       <c r="F161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -4638,7 +4638,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D162" t="n">
@@ -4648,7 +4648,7 @@
         <v>0.7808218598365784</v>
       </c>
       <c r="F162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -4664,7 +4664,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D163" t="n">
@@ -4674,7 +4674,7 @@
         <v>0.7459263801574707</v>
       </c>
       <c r="F163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -4690,7 +4690,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>内科</t>
         </is>
       </c>
       <c r="D164" t="n">
@@ -4700,7 +4700,7 @@
         <v>0.7626161575317383</v>
       </c>
       <c r="F164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D165" t="n">
@@ -4726,7 +4726,7 @@
         <v>0.7519434094429016</v>
       </c>
       <c r="F165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -4742,7 +4742,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D166" t="n">
@@ -4752,7 +4752,7 @@
         <v>0.7400019764900208</v>
       </c>
       <c r="F166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D167" t="n">
@@ -4778,7 +4778,7 @@
         <v>0.7485980987548828</v>
       </c>
       <c r="F167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -4794,7 +4794,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D168" t="n">
@@ -4804,7 +4804,7 @@
         <v>0.7444767951965332</v>
       </c>
       <c r="F168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -4820,7 +4820,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D169" t="n">
@@ -4830,7 +4830,7 @@
         <v>0.7583519816398621</v>
       </c>
       <c r="F169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -4846,7 +4846,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D170" t="n">
@@ -4856,7 +4856,7 @@
         <v>0.7542955875396729</v>
       </c>
       <c r="F170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D171" t="n">
@@ -4882,7 +4882,7 @@
         <v>0.7365973591804504</v>
       </c>
       <c r="F171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -4898,7 +4898,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -4908,7 +4908,7 @@
         <v>0.7543501853942871</v>
       </c>
       <c r="F172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -4924,7 +4924,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D173" t="n">
@@ -4934,7 +4934,7 @@
         <v>0.7448555827140808</v>
       </c>
       <c r="F173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -4950,7 +4950,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D174" t="n">
@@ -4960,7 +4960,7 @@
         <v>0.7453264594078064</v>
       </c>
       <c r="F174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>入院时间</t>
         </is>
       </c>
       <c r="D175" t="n">
@@ -5002,7 +5002,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>内科</t>
         </is>
       </c>
       <c r="D176" t="n">
@@ -5012,7 +5012,7 @@
         <v>0.9985468983650208</v>
       </c>
       <c r="F176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他内科科室</t>
         </is>
       </c>
       <c r="D177" t="n">
@@ -5038,7 +5038,7 @@
         <v>0.9959060549736023</v>
       </c>
       <c r="F177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -5054,7 +5054,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D178" t="n">
@@ -5064,7 +5064,7 @@
         <v>0.8304545879364014</v>
       </c>
       <c r="F178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>内科</t>
         </is>
       </c>
       <c r="D179" t="n">
@@ -5090,7 +5090,7 @@
         <v>0.8967347145080566</v>
       </c>
       <c r="F179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -5106,7 +5106,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D180" t="n">
@@ -5116,7 +5116,7 @@
         <v>0.8298801779747009</v>
       </c>
       <c r="F180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -5132,7 +5132,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>外科</t>
         </is>
       </c>
       <c r="D181" t="n">
@@ -5142,7 +5142,7 @@
         <v>0.7904768586158752</v>
       </c>
       <c r="F181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -5158,7 +5158,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>内科</t>
         </is>
       </c>
       <c r="D182" t="n">
@@ -5168,7 +5168,7 @@
         <v>0.8626628518104553</v>
       </c>
       <c r="F182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -5184,7 +5184,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他内科科室</t>
         </is>
       </c>
       <c r="D183" t="n">
@@ -5194,7 +5194,7 @@
         <v>0.798406183719635</v>
       </c>
       <c r="F183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>首次诊断肺动脉高压时间（年/月/日）</t>
         </is>
       </c>
       <c r="D184" t="n">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>BMI</t>
         </is>
       </c>
       <c r="D185" t="n">
@@ -5262,7 +5262,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>外科</t>
         </is>
       </c>
       <c r="D186" t="n">
@@ -5288,7 +5288,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>内科</t>
         </is>
       </c>
       <c r="D187" t="n">
@@ -5298,7 +5298,7 @@
         <v>0.9985468983650208</v>
       </c>
       <c r="F187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -5392,7 +5392,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>外科</t>
         </is>
       </c>
       <c r="D191" t="n">
@@ -5402,7 +5402,7 @@
         <v>0.9945679306983948</v>
       </c>
       <c r="F191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他内科科室</t>
         </is>
       </c>
       <c r="D192" t="n">
@@ -5428,7 +5428,7 @@
         <v>0.6227641105651855</v>
       </c>
       <c r="F192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -5444,7 +5444,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他内科科室</t>
         </is>
       </c>
       <c r="D193" t="n">
@@ -5454,7 +5454,7 @@
         <v>0.637827455997467</v>
       </c>
       <c r="F193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -5470,7 +5470,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>BMI</t>
         </is>
       </c>
       <c r="D194" t="n">
@@ -5496,7 +5496,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>BMI</t>
         </is>
       </c>
       <c r="D195" t="n">
@@ -5522,7 +5522,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>BMI</t>
         </is>
       </c>
       <c r="D196" t="n">
@@ -5548,7 +5548,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>BMI</t>
         </is>
       </c>
       <c r="D197" t="n">
@@ -5574,7 +5574,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>受试者编号</t>
         </is>
       </c>
       <c r="D198" t="n">
@@ -5584,7 +5584,7 @@
         <v>0.8146608471870422</v>
       </c>
       <c r="F198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -5600,7 +5600,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>受试者编号</t>
         </is>
       </c>
       <c r="D199" t="n">
@@ -5626,7 +5626,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>入院科室</t>
         </is>
       </c>
       <c r="D200" t="n">
@@ -5636,7 +5636,7 @@
         <v>0.7745035290718079</v>
       </c>
       <c r="F200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>外科</t>
         </is>
       </c>
       <c r="D201" t="n">
@@ -5662,7 +5662,7 @@
         <v>0.9986839294433594</v>
       </c>
       <c r="F201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -5678,7 +5678,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>外科</t>
         </is>
       </c>
       <c r="D202" t="n">
@@ -5688,7 +5688,7 @@
         <v>0.6837714314460754</v>
       </c>
       <c r="F202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他内科科室</t>
         </is>
       </c>
       <c r="D203" t="n">
@@ -5714,7 +5714,7 @@
         <v>0.6858217716217041</v>
       </c>
       <c r="F203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -5730,7 +5730,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>外科</t>
         </is>
       </c>
       <c r="D204" t="n">
@@ -5740,7 +5740,7 @@
         <v>0.9986839294433594</v>
       </c>
       <c r="F204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -5756,7 +5756,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>外科</t>
         </is>
       </c>
       <c r="D205" t="n">
@@ -5766,7 +5766,7 @@
         <v>0.9986839294433594</v>
       </c>
       <c r="F205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -5782,7 +5782,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他内科科室</t>
         </is>
       </c>
       <c r="D206" t="n">
@@ -5792,7 +5792,7 @@
         <v>0.9959060549736023</v>
       </c>
       <c r="F206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -5808,7 +5808,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>外科</t>
         </is>
       </c>
       <c r="D207" t="n">
@@ -5818,7 +5818,7 @@
         <v>0.9986839294433594</v>
       </c>
       <c r="F207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -5834,7 +5834,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>婚姻状况</t>
         </is>
       </c>
       <c r="D208" t="n">
@@ -5860,7 +5860,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>婚姻状况</t>
         </is>
       </c>
       <c r="D209" t="n">
@@ -5886,7 +5886,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D210" t="n">
@@ -5896,7 +5896,7 @@
         <v>0.7468805909156799</v>
       </c>
       <c r="F210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -5912,7 +5912,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>入院科室</t>
         </is>
       </c>
       <c r="D211" t="n">
@@ -5922,7 +5922,7 @@
         <v>0.6648107767105103</v>
       </c>
       <c r="F211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -5938,7 +5938,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D212" t="n">
@@ -5964,7 +5964,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D213" t="n">
@@ -5974,7 +5974,7 @@
         <v>0.899212658405304</v>
       </c>
       <c r="F213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -5990,7 +5990,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D214" t="n">
@@ -6000,7 +6000,7 @@
         <v>0.8577917218208313</v>
       </c>
       <c r="F214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -6016,7 +6016,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>转科科别</t>
         </is>
       </c>
       <c r="D215" t="n">
@@ -6026,7 +6026,7 @@
         <v>0.9016404151916504</v>
       </c>
       <c r="F215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -6042,7 +6042,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>转科科别</t>
         </is>
       </c>
       <c r="D216" t="n">
@@ -6146,7 +6146,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院科室名称（科别）</t>
         </is>
       </c>
       <c r="D220" t="n">
@@ -6156,7 +6156,7 @@
         <v>0.8245700001716614</v>
       </c>
       <c r="F220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -6172,7 +6172,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>转科科别</t>
         </is>
       </c>
       <c r="D221" t="n">
@@ -6182,7 +6182,7 @@
         <v>0.8606961369514465</v>
       </c>
       <c r="F221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -6224,7 +6224,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>转科科别</t>
         </is>
       </c>
       <c r="D223" t="n">
@@ -6250,7 +6250,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D224" t="n">
@@ -6302,7 +6302,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D226" t="n">
@@ -6312,7 +6312,7 @@
         <v>0.865410327911377</v>
       </c>
       <c r="F226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D227" t="n">
@@ -6380,7 +6380,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D229" t="n">
@@ -6458,7 +6458,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院科室名称（科别）</t>
         </is>
       </c>
       <c r="D232" t="n">
@@ -6468,7 +6468,7 @@
         <v>0.8100810647010803</v>
       </c>
       <c r="F232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -6484,7 +6484,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>转科科别</t>
         </is>
       </c>
       <c r="D233" t="n">
@@ -6494,7 +6494,7 @@
         <v>0.8505279421806335</v>
       </c>
       <c r="F233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -6510,7 +6510,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>首次诊断肺动脉高压时间（年/月/日）</t>
         </is>
       </c>
       <c r="D234" t="n">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D236" t="n">
@@ -6588,7 +6588,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D237" t="n">
@@ -6598,7 +6598,7 @@
         <v>0.8312521576881409</v>
       </c>
       <c r="F237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -6614,7 +6614,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D238" t="n">
@@ -6624,7 +6624,7 @@
         <v>0.8444568514823914</v>
       </c>
       <c r="F238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -6640,7 +6640,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D239" t="n">
@@ -6666,7 +6666,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D240" t="n">
@@ -6692,7 +6692,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D241" t="n">
@@ -6770,7 +6770,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>转科科别</t>
         </is>
       </c>
       <c r="D244" t="n">
@@ -6796,7 +6796,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>内科</t>
         </is>
       </c>
       <c r="D245" t="n">
@@ -6822,7 +6822,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>首次诊断肺动脉高压时间（年/月/日）</t>
         </is>
       </c>
       <c r="D246" t="n">
@@ -6874,7 +6874,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>住院总费用</t>
         </is>
       </c>
       <c r="D248" t="n">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D249" t="n">
@@ -6910,7 +6910,7 @@
         <v>0.813871443271637</v>
       </c>
       <c r="F249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -6926,7 +6926,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D250" t="n">
@@ -6936,7 +6936,7 @@
         <v>0.8215394616127014</v>
       </c>
       <c r="F250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>住院总费用</t>
         </is>
       </c>
       <c r="D251" t="n">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>住院总费用</t>
         </is>
       </c>
       <c r="D253" t="n">
@@ -7030,7 +7030,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>住院总费用</t>
         </is>
       </c>
       <c r="D254" t="n">
@@ -7082,7 +7082,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院科室名称（科别）</t>
         </is>
       </c>
       <c r="D256" t="n">
@@ -7092,7 +7092,7 @@
         <v>0.7699553370475769</v>
       </c>
       <c r="F256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -7108,7 +7108,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>内科</t>
         </is>
       </c>
       <c r="D257" t="n">
@@ -7134,7 +7134,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>首次诊断肺动脉高压时间（年/月/日）</t>
         </is>
       </c>
       <c r="D258" t="n">
@@ -7160,7 +7160,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>住院总费用</t>
         </is>
       </c>
       <c r="D259" t="n">
@@ -7186,7 +7186,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D260" t="n">
@@ -7238,7 +7238,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D262" t="n">
@@ -7248,7 +7248,7 @@
         <v>0.8286600112915039</v>
       </c>
       <c r="F262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -7316,7 +7316,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D265" t="n">
@@ -7394,7 +7394,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院科室名称（科别）</t>
         </is>
       </c>
       <c r="D268" t="n">
@@ -7404,7 +7404,7 @@
         <v>0.7891904711723328</v>
       </c>
       <c r="F268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>转科科别</t>
         </is>
       </c>
       <c r="D269" t="n">
@@ -7430,7 +7430,7 @@
         <v>0.8046895861625671</v>
       </c>
       <c r="F269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>受试者编号</t>
         </is>
       </c>
       <c r="D270" t="n">
@@ -7498,7 +7498,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>转科科别</t>
         </is>
       </c>
       <c r="D272" t="n">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>姓名缩写</t>
         </is>
       </c>
       <c r="D273" t="n">
@@ -7550,7 +7550,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D274" t="n">
@@ -7560,7 +7560,7 @@
         <v>0.8180816769599915</v>
       </c>
       <c r="F274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D275" t="n">
@@ -7602,7 +7602,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D276" t="n">
@@ -7628,7 +7628,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>转科科别</t>
         </is>
       </c>
       <c r="D277" t="n">
@@ -7654,7 +7654,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D278" t="n">
@@ -7680,7 +7680,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>姓名缩写</t>
         </is>
       </c>
       <c r="D279" t="n">
@@ -7690,7 +7690,7 @@
         <v>0.829687774181366</v>
       </c>
       <c r="F279" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -7706,7 +7706,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>转科科别</t>
         </is>
       </c>
       <c r="D280" t="n">
@@ -7732,7 +7732,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D281" t="n">
@@ -7758,7 +7758,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D282" t="n">
@@ -7784,7 +7784,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D283" t="n">
@@ -7810,7 +7810,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D284" t="n">
@@ -7836,7 +7836,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D285" t="n">
@@ -7846,7 +7846,7 @@
         <v>0.8346286416053772</v>
       </c>
       <c r="F285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -7862,7 +7862,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D286" t="n">
@@ -7872,7 +7872,7 @@
         <v>0.8439052104949951</v>
       </c>
       <c r="F286" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -7888,7 +7888,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D287" t="n">
@@ -7914,7 +7914,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D288" t="n">
@@ -7940,7 +7940,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D289" t="n">
@@ -7966,7 +7966,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D290" t="n">
@@ -8018,7 +8018,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>转科科别</t>
         </is>
       </c>
       <c r="D292" t="n">
@@ -8044,7 +8044,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D293" t="n">
@@ -8070,7 +8070,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D294" t="n">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D295" t="n">
@@ -8174,7 +8174,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D298" t="n">
@@ -8184,7 +8184,7 @@
         <v>0.8352188467979431</v>
       </c>
       <c r="F298" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -8226,7 +8226,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>就诊日期（年/月/日）</t>
         </is>
       </c>
       <c r="D300" t="n">
@@ -8252,7 +8252,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>转科科别</t>
         </is>
       </c>
       <c r="D301" t="n">
@@ -8262,7 +8262,7 @@
         <v>0.8331499099731445</v>
       </c>
       <c r="F301" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -8330,7 +8330,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>转科科别</t>
         </is>
       </c>
       <c r="D304" t="n">
@@ -8356,7 +8356,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>转科科别</t>
         </is>
       </c>
       <c r="D305" t="n">
@@ -8366,7 +8366,7 @@
         <v>0.8107715249061584</v>
       </c>
       <c r="F305" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -8460,7 +8460,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D309" t="n">
@@ -8470,7 +8470,7 @@
         <v>0.8200293183326721</v>
       </c>
       <c r="F309" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -8486,7 +8486,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D310" t="n">
@@ -8496,7 +8496,7 @@
         <v>0.8223841786384583</v>
       </c>
       <c r="F310" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -8512,7 +8512,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D311" t="n">
@@ -8538,7 +8538,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>确诊日期（年/月/日）</t>
         </is>
       </c>
       <c r="D312" t="n">
@@ -8564,7 +8564,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D313" t="n">
@@ -8590,7 +8590,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D314" t="n">
@@ -8642,7 +8642,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>转科科别</t>
         </is>
       </c>
       <c r="D316" t="n">
@@ -8668,7 +8668,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>转科科别</t>
         </is>
       </c>
       <c r="D317" t="n">
@@ -8694,7 +8694,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D318" t="n">
@@ -8746,7 +8746,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D320" t="n">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D321" t="n">
@@ -8798,7 +8798,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D322" t="n">
@@ -8808,7 +8808,7 @@
         <v>0.8453373908996582</v>
       </c>
       <c r="F322" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>转科科别</t>
         </is>
       </c>
       <c r="D323" t="n">
@@ -8850,7 +8850,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D324" t="n">
@@ -8876,7 +8876,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D325" t="n">
@@ -8902,7 +8902,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D326" t="n">
@@ -8928,7 +8928,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>转科科别</t>
         </is>
       </c>
       <c r="D327" t="n">
@@ -8954,7 +8954,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>转科科别</t>
         </is>
       </c>
       <c r="D328" t="n">
@@ -8980,7 +8980,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>转科科别</t>
         </is>
       </c>
       <c r="D329" t="n">
@@ -9006,7 +9006,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D330" t="n">
@@ -9032,7 +9032,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D331" t="n">
@@ -9058,7 +9058,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D332" t="n">
@@ -9084,7 +9084,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>姓名缩写</t>
         </is>
       </c>
       <c r="D333" t="n">
@@ -9094,7 +9094,7 @@
         <v>0.8225932121276855</v>
       </c>
       <c r="F333" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
@@ -9110,7 +9110,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D334" t="n">
@@ -9120,7 +9120,7 @@
         <v>0.834821879863739</v>
       </c>
       <c r="F334" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
@@ -9136,7 +9136,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D335" t="n">
@@ -9162,7 +9162,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D336" t="n">
@@ -9188,7 +9188,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D337" t="n">
@@ -9214,7 +9214,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D338" t="n">
@@ -9240,7 +9240,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>姓名缩写</t>
         </is>
       </c>
       <c r="D339" t="n">
@@ -9250,7 +9250,7 @@
         <v>0.8400611877441406</v>
       </c>
       <c r="F339" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
@@ -9266,7 +9266,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>转科科别</t>
         </is>
       </c>
       <c r="D340" t="n">
@@ -9292,7 +9292,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>转科科别</t>
         </is>
       </c>
       <c r="D341" t="n">
@@ -9318,7 +9318,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D342" t="n">
@@ -9344,7 +9344,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D343" t="n">
@@ -9370,7 +9370,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D344" t="n">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D345" t="n">
@@ -9406,7 +9406,7 @@
         <v>0.8101550936698914</v>
       </c>
       <c r="F345" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -9422,7 +9422,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D346" t="n">
@@ -9432,7 +9432,7 @@
         <v>0.822960376739502</v>
       </c>
       <c r="F346" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D347" t="n">
@@ -9474,7 +9474,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>知情同意书签署日期（年/月/日）</t>
         </is>
       </c>
       <c r="D348" t="n">
@@ -9500,7 +9500,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D349" t="n">
@@ -9526,7 +9526,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D350" t="n">
@@ -9552,7 +9552,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D351" t="n">
@@ -9578,7 +9578,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>转科科别</t>
         </is>
       </c>
       <c r="D352" t="n">
@@ -9604,7 +9604,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>转科科别</t>
         </is>
       </c>
       <c r="D353" t="n">
@@ -9630,7 +9630,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D354" t="n">
@@ -9656,7 +9656,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D355" t="n">
@@ -9682,7 +9682,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D356" t="n">
@@ -9708,7 +9708,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D357" t="n">
@@ -9718,7 +9718,7 @@
         <v>0.7927752137184143</v>
       </c>
       <c r="F357" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
@@ -9734,7 +9734,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D358" t="n">
@@ -9744,7 +9744,7 @@
         <v>0.8148348927497864</v>
       </c>
       <c r="F358" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
@@ -9760,7 +9760,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D359" t="n">
@@ -9786,7 +9786,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D360" t="n">
@@ -9812,7 +9812,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D361" t="n">
@@ -9838,7 +9838,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D362" t="n">
@@ -9864,7 +9864,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D363" t="n">
@@ -9890,7 +9890,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院科室名称（科别）</t>
         </is>
       </c>
       <c r="D364" t="n">
@@ -9900,7 +9900,7 @@
         <v>0.7521681785583496</v>
       </c>
       <c r="F364" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
@@ -9916,7 +9916,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>转科科别</t>
         </is>
       </c>
       <c r="D365" t="n">
@@ -9926,7 +9926,7 @@
         <v>0.7799652218818665</v>
       </c>
       <c r="F365" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
@@ -9942,7 +9942,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D366" t="n">
@@ -9968,7 +9968,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D367" t="n">
@@ -9994,7 +9994,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D368" t="n">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D369" t="n">
@@ -10046,7 +10046,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D370" t="n">
@@ -10056,7 +10056,7 @@
         <v>0.8162450790405273</v>
       </c>
       <c r="F370" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D371" t="n">
@@ -10098,7 +10098,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D372" t="n">
@@ -10124,7 +10124,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D373" t="n">
@@ -10150,7 +10150,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D374" t="n">
@@ -10176,7 +10176,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D375" t="n">
@@ -10202,7 +10202,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院科室名称（科别）</t>
         </is>
       </c>
       <c r="D376" t="n">
@@ -10212,7 +10212,7 @@
         <v>0.7482382655143738</v>
       </c>
       <c r="F376" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
@@ -10228,7 +10228,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>门（急）诊诊断疾病编码</t>
         </is>
       </c>
       <c r="D377" t="n">
@@ -10254,7 +10254,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>首次诊断肺动脉高压时间（年/月/日）</t>
         </is>
       </c>
       <c r="D378" t="n">
@@ -10280,7 +10280,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D379" t="n">
@@ -10306,7 +10306,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D380" t="n">
@@ -10332,7 +10332,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D381" t="n">
@@ -10342,7 +10342,7 @@
         <v>0.7875582575798035</v>
       </c>
       <c r="F381" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
@@ -10358,7 +10358,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D382" t="n">
@@ -10368,7 +10368,7 @@
         <v>0.8135638833045959</v>
       </c>
       <c r="F382" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
@@ -10384,7 +10384,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D383" t="n">
@@ -10410,7 +10410,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D384" t="n">
@@ -10436,7 +10436,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D385" t="n">
@@ -10488,7 +10488,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D387" t="n">
@@ -10514,7 +10514,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院科室名称（科别）</t>
         </is>
       </c>
       <c r="D388" t="n">
@@ -10524,7 +10524,7 @@
         <v>0.7480664253234863</v>
       </c>
       <c r="F388" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>重症监护室名称</t>
         </is>
       </c>
       <c r="D389" t="n">
@@ -10566,7 +10566,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>转科科别</t>
         </is>
       </c>
       <c r="D390" t="n">
@@ -10576,7 +10576,7 @@
         <v>0.7822034955024719</v>
       </c>
       <c r="F390" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
@@ -10592,7 +10592,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D391" t="n">
@@ -10618,7 +10618,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D392" t="n">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D393" t="n">
@@ -10654,7 +10654,7 @@
         <v>0.7766574025154114</v>
       </c>
       <c r="F393" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
@@ -10670,7 +10670,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D394" t="n">
@@ -10680,7 +10680,7 @@
         <v>0.7825064063072205</v>
       </c>
       <c r="F394" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D395" t="n">
@@ -10722,7 +10722,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D396" t="n">
@@ -10748,7 +10748,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D397" t="n">
@@ -10774,7 +10774,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D398" t="n">
@@ -10826,7 +10826,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院科室名称（科别）</t>
         </is>
       </c>
       <c r="D400" t="n">
@@ -10836,7 +10836,7 @@
         <v>0.738898754119873</v>
       </c>
       <c r="F400" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
@@ -10852,7 +10852,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D401" t="n">
@@ -10878,7 +10878,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D402" t="n">
@@ -10930,7 +10930,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出重症监护室时间</t>
         </is>
       </c>
       <c r="D404" t="n">
@@ -10956,7 +10956,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D405" t="n">
@@ -10966,7 +10966,7 @@
         <v>0.7981810569763184</v>
       </c>
       <c r="F405" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
@@ -10982,7 +10982,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D406" t="n">
@@ -10992,7 +10992,7 @@
         <v>0.8066055774688721</v>
       </c>
       <c r="F406" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
@@ -11008,7 +11008,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出重症监护室时间</t>
         </is>
       </c>
       <c r="D407" t="n">
@@ -11034,7 +11034,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出重症监护室时间</t>
         </is>
       </c>
       <c r="D408" t="n">
@@ -11060,7 +11060,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出重症监护室时间</t>
         </is>
       </c>
       <c r="D409" t="n">
@@ -11086,7 +11086,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出重症监护室时间</t>
         </is>
       </c>
       <c r="D410" t="n">
@@ -11112,7 +11112,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出重症监护室时间</t>
         </is>
       </c>
       <c r="D411" t="n">
@@ -11138,7 +11138,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>转科科别</t>
         </is>
       </c>
       <c r="D412" t="n">
@@ -11164,7 +11164,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D413" t="n">
@@ -11190,7 +11190,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D414" t="n">
@@ -11216,7 +11216,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出重症监护室时间</t>
         </is>
       </c>
       <c r="D415" t="n">
@@ -11242,7 +11242,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D416" t="n">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D417" t="n">
@@ -11294,7 +11294,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D418" t="n">
@@ -11304,7 +11304,7 @@
         <v>0.8223752379417419</v>
       </c>
       <c r="F418" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D419" t="n">
@@ -11346,7 +11346,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D420" t="n">
@@ -11372,7 +11372,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D421" t="n">
@@ -11398,7 +11398,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D422" t="n">
@@ -11424,7 +11424,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D423" t="n">
@@ -11450,7 +11450,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院科室名称（科别）</t>
         </is>
       </c>
       <c r="D424" t="n">
@@ -11460,7 +11460,7 @@
         <v>0.7631418108940125</v>
       </c>
       <c r="F424" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425">
@@ -11476,7 +11476,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>离院方式</t>
         </is>
       </c>
       <c r="D425" t="n">
@@ -11502,7 +11502,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D426" t="n">
@@ -11528,7 +11528,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D427" t="n">
@@ -11554,7 +11554,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D428" t="n">
@@ -11606,7 +11606,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D430" t="n">
@@ -11616,7 +11616,7 @@
         <v>0.8318960070610046</v>
       </c>
       <c r="F430" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
@@ -11632,7 +11632,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D431" t="n">
@@ -11658,7 +11658,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D432" t="n">
@@ -11684,7 +11684,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D433" t="n">
@@ -11710,7 +11710,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D434" t="n">
@@ -11736,7 +11736,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D435" t="n">
@@ -11762,7 +11762,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院科室名称（科别）</t>
         </is>
       </c>
       <c r="D436" t="n">
@@ -11772,7 +11772,7 @@
         <v>0.7627785801887512</v>
       </c>
       <c r="F436" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
@@ -11788,7 +11788,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>转科科别</t>
         </is>
       </c>
       <c r="D437" t="n">
@@ -11798,7 +11798,7 @@
         <v>0.7903963923454285</v>
       </c>
       <c r="F437" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
@@ -11814,7 +11814,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D438" t="n">
@@ -11840,7 +11840,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D439" t="n">
@@ -11866,7 +11866,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D440" t="n">
@@ -11892,7 +11892,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D441" t="n">
@@ -11918,7 +11918,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D442" t="n">
@@ -11928,7 +11928,7 @@
         <v>0.8344569206237793</v>
       </c>
       <c r="F442" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D443" t="n">
@@ -11970,7 +11970,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D444" t="n">
@@ -11996,7 +11996,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D445" t="n">
@@ -12022,7 +12022,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D446" t="n">
@@ -12048,7 +12048,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D447" t="n">
@@ -12074,7 +12074,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>转科科别</t>
         </is>
       </c>
       <c r="D448" t="n">
@@ -12100,7 +12100,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>转科科别</t>
         </is>
       </c>
       <c r="D449" t="n">
@@ -12110,7 +12110,7 @@
         <v>0.8004770278930664</v>
       </c>
       <c r="F449" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
@@ -12126,7 +12126,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D450" t="n">
@@ -12152,7 +12152,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D451" t="n">
@@ -12178,7 +12178,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D452" t="n">
@@ -12204,7 +12204,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D453" t="n">
@@ -12230,7 +12230,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D454" t="n">
@@ -12240,7 +12240,7 @@
         <v>0.8155656456947327</v>
       </c>
       <c r="F454" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455">
@@ -12256,7 +12256,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D455" t="n">
@@ -12282,7 +12282,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D456" t="n">
@@ -12308,7 +12308,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D457" t="n">
@@ -12334,7 +12334,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D458" t="n">
@@ -12360,7 +12360,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D459" t="n">
@@ -12386,7 +12386,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院科室名称（科别）</t>
         </is>
       </c>
       <c r="D460" t="n">
@@ -12396,7 +12396,7 @@
         <v>0.7550166249275208</v>
       </c>
       <c r="F460" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461">
@@ -12412,7 +12412,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D461" t="n">
@@ -12438,7 +12438,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D462" t="n">
@@ -12464,7 +12464,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D463" t="n">
@@ -12490,7 +12490,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D464" t="n">
@@ -12516,7 +12516,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D465" t="n">
@@ -12526,7 +12526,7 @@
         <v>0.8186532855033875</v>
       </c>
       <c r="F465" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466">
@@ -12542,7 +12542,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D466" t="n">
@@ -12552,7 +12552,7 @@
         <v>0.8458206057548523</v>
       </c>
       <c r="F466" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D467" t="n">
@@ -12594,7 +12594,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D468" t="n">
@@ -12620,7 +12620,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D469" t="n">
@@ -12646,7 +12646,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D470" t="n">
@@ -12672,7 +12672,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D471" t="n">
@@ -12698,7 +12698,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D472" t="n">
@@ -12724,7 +12724,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D473" t="n">
@@ -12750,7 +12750,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D474" t="n">
@@ -12776,7 +12776,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D475" t="n">
@@ -12802,7 +12802,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D476" t="n">
@@ -12828,7 +12828,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D477" t="n">
@@ -12854,7 +12854,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D478" t="n">
@@ -12864,7 +12864,7 @@
         <v>0.8151483535766602</v>
       </c>
       <c r="F478" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479">
@@ -12880,7 +12880,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D479" t="n">
@@ -12906,7 +12906,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D480" t="n">
@@ -12932,7 +12932,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D481" t="n">
@@ -12958,7 +12958,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D482" t="n">
@@ -12984,7 +12984,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D483" t="n">
@@ -13010,7 +13010,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D484" t="n">
@@ -13036,7 +13036,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D485" t="n">
@@ -13062,7 +13062,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D486" t="n">
@@ -13072,7 +13072,7 @@
         <v>0.7978587746620178</v>
       </c>
       <c r="F486" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487">
@@ -13088,7 +13088,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D487" t="n">
@@ -13114,7 +13114,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D488" t="n">
@@ -13124,7 +13124,7 @@
         <v>0.8500517010688782</v>
       </c>
       <c r="F488" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489">
@@ -13140,7 +13140,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D489" t="n">
@@ -13150,7 +13150,7 @@
         <v>0.8327077031135559</v>
       </c>
       <c r="F489" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490">
@@ -13166,7 +13166,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D490" t="n">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D491" t="n">
@@ -13202,7 +13202,7 @@
         <v>0.8500517010688782</v>
       </c>
       <c r="F491" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492">
@@ -13218,7 +13218,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D492" t="n">
@@ -13228,7 +13228,7 @@
         <v>0.8532659411430359</v>
       </c>
       <c r="F492" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493">
@@ -13244,7 +13244,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D493" t="n">
@@ -13254,7 +13254,7 @@
         <v>0.8500517010688782</v>
       </c>
       <c r="F493" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
@@ -13270,7 +13270,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D494" t="n">
@@ -13296,7 +13296,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D495" t="n">
@@ -13306,7 +13306,7 @@
         <v>0.8500517010688782</v>
       </c>
       <c r="F495" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496">
@@ -13322,7 +13322,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D496" t="n">
@@ -13332,7 +13332,7 @@
         <v>0.7967488765716553</v>
       </c>
       <c r="F496" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497">
@@ -13348,7 +13348,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D497" t="n">
@@ -13358,7 +13358,7 @@
         <v>0.8243436813354492</v>
       </c>
       <c r="F497" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498">
@@ -13374,7 +13374,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D498" t="n">
@@ -13384,7 +13384,7 @@
         <v>0.8283783793449402</v>
       </c>
       <c r="F498" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499">
@@ -13400,7 +13400,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D499" t="n">
@@ -13410,7 +13410,7 @@
         <v>0.8532659411430359</v>
       </c>
       <c r="F499" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500">
@@ -13426,7 +13426,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D500" t="n">
@@ -13436,7 +13436,7 @@
         <v>0.8398680686950684</v>
       </c>
       <c r="F500" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501">
@@ -13452,7 +13452,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D501" t="n">
@@ -13478,7 +13478,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D502" t="n">
@@ -13488,7 +13488,7 @@
         <v>0.8297660350799561</v>
       </c>
       <c r="F502" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503">
@@ -13504,7 +13504,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D503" t="n">
@@ -13514,7 +13514,7 @@
         <v>0.8398680686950684</v>
       </c>
       <c r="F503" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504">
@@ -13530,7 +13530,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D504" t="n">
@@ -13540,7 +13540,7 @@
         <v>0.8416226506233215</v>
       </c>
       <c r="F504" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505">
@@ -13556,7 +13556,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D505" t="n">
@@ -13566,7 +13566,7 @@
         <v>0.8398680686950684</v>
       </c>
       <c r="F505" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506">
@@ -13582,7 +13582,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D506" t="n">
@@ -13592,7 +13592,7 @@
         <v>0.8398680686950684</v>
       </c>
       <c r="F506" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507">
@@ -13608,7 +13608,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D507" t="n">
@@ -13618,7 +13618,7 @@
         <v>0.8398680686950684</v>
       </c>
       <c r="F507" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508">
@@ -13634,7 +13634,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D508" t="n">
@@ -13660,7 +13660,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D509" t="n">
@@ -13670,7 +13670,7 @@
         <v>0.8240261077880859</v>
       </c>
       <c r="F509" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510">
@@ -13686,7 +13686,7 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D510" t="n">
@@ -13696,7 +13696,7 @@
         <v>0.8239743113517761</v>
       </c>
       <c r="F510" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511">
@@ -13712,7 +13712,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D511" t="n">
@@ -13722,7 +13722,7 @@
         <v>0.8416226506233215</v>
       </c>
       <c r="F511" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512">
@@ -13738,7 +13738,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D512" t="n">
@@ -13748,7 +13748,7 @@
         <v>0.8053730130195618</v>
       </c>
       <c r="F512" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513">
@@ -13764,7 +13764,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D513" t="n">
@@ -13790,7 +13790,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D514" t="n">
@@ -13800,7 +13800,7 @@
         <v>0.8059587478637695</v>
       </c>
       <c r="F514" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D515" t="n">
@@ -13826,7 +13826,7 @@
         <v>0.8053730130195618</v>
       </c>
       <c r="F515" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516">
@@ -13842,7 +13842,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D516" t="n">
@@ -13868,7 +13868,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D517" t="n">
@@ -13878,7 +13878,7 @@
         <v>0.8053730130195618</v>
       </c>
       <c r="F517" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518">
@@ -13894,7 +13894,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D518" t="n">
@@ -13920,7 +13920,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D519" t="n">
@@ -13930,7 +13930,7 @@
         <v>0.8053730130195618</v>
       </c>
       <c r="F519" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520">
@@ -13946,7 +13946,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D520" t="n">
@@ -13972,7 +13972,7 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D521" t="n">
@@ -13998,7 +13998,7 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D522" t="n">
@@ -14008,7 +14008,7 @@
         <v>0.78606778383255</v>
       </c>
       <c r="F522" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523">
@@ -14024,7 +14024,7 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D523" t="n">
@@ -14050,7 +14050,7 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D524" t="n">
@@ -14076,7 +14076,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D525" t="n">
@@ -14086,7 +14086,7 @@
         <v>0.8260133862495422</v>
       </c>
       <c r="F525" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526">
@@ -14102,7 +14102,7 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D526" t="n">
@@ -14112,7 +14112,7 @@
         <v>0.8419074416160583</v>
       </c>
       <c r="F526" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527">
@@ -14128,7 +14128,7 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D527" t="n">
@@ -14154,7 +14154,7 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D528" t="n">
@@ -14180,7 +14180,7 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D529" t="n">
@@ -14206,7 +14206,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D530" t="n">
@@ -14232,7 +14232,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D531" t="n">
@@ -14258,7 +14258,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院科室名称（科别）</t>
         </is>
       </c>
       <c r="D532" t="n">
@@ -14268,7 +14268,7 @@
         <v>0.7801027297973633</v>
       </c>
       <c r="F532" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533">
@@ -14284,7 +14284,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D533" t="n">
@@ -14310,7 +14310,7 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D534" t="n">
@@ -14336,7 +14336,7 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D535" t="n">
@@ -14362,7 +14362,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D536" t="n">
@@ -14388,7 +14388,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D537" t="n">
@@ -14398,7 +14398,7 @@
         <v>0.8249052166938782</v>
       </c>
       <c r="F537" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538">
@@ -14414,7 +14414,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D538" t="n">
@@ -14424,7 +14424,7 @@
         <v>0.8407866358757019</v>
       </c>
       <c r="F538" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D539" t="n">
@@ -14466,7 +14466,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D540" t="n">
@@ -14492,7 +14492,7 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D541" t="n">
@@ -14518,7 +14518,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D542" t="n">
@@ -14544,7 +14544,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D543" t="n">
@@ -14570,7 +14570,7 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院科室名称（科别）</t>
         </is>
       </c>
       <c r="D544" t="n">
@@ -14580,7 +14580,7 @@
         <v>0.7819482684135437</v>
       </c>
       <c r="F544" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545">
@@ -14596,7 +14596,7 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D545" t="n">
@@ -14622,7 +14622,7 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D546" t="n">
@@ -14648,7 +14648,7 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D547" t="n">
@@ -14674,7 +14674,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D548" t="n">
@@ -14700,7 +14700,7 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D549" t="n">
@@ -14710,7 +14710,7 @@
         <v>0.8308624625205994</v>
       </c>
       <c r="F549" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
@@ -14726,7 +14726,7 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D550" t="n">
@@ -14736,7 +14736,7 @@
         <v>0.8573978543281555</v>
       </c>
       <c r="F550" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551">
@@ -14752,7 +14752,7 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D551" t="n">
@@ -14778,7 +14778,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D552" t="n">
@@ -14804,7 +14804,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D553" t="n">
@@ -14856,7 +14856,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D555" t="n">
@@ -14882,7 +14882,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>转科科别</t>
         </is>
       </c>
       <c r="D556" t="n">
@@ -14908,7 +14908,7 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>转科科别</t>
         </is>
       </c>
       <c r="D557" t="n">
@@ -14918,7 +14918,7 @@
         <v>0.8096404075622559</v>
       </c>
       <c r="F557" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558">
@@ -14934,7 +14934,7 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D558" t="n">
@@ -14986,7 +14986,7 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D560" t="n">
@@ -15012,7 +15012,7 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D561" t="n">
@@ -15022,7 +15022,7 @@
         <v>0.805808961391449</v>
       </c>
       <c r="F561" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562">
@@ -15038,7 +15038,7 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D562" t="n">
@@ -15048,7 +15048,7 @@
         <v>0.8363080024719238</v>
       </c>
       <c r="F562" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D563" t="n">
@@ -15090,7 +15090,7 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D564" t="n">
@@ -15116,7 +15116,7 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D565" t="n">
@@ -15142,7 +15142,7 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D566" t="n">
@@ -15168,7 +15168,7 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D567" t="n">
@@ -15194,7 +15194,7 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院科室名称（科别）</t>
         </is>
       </c>
       <c r="D568" t="n">
@@ -15204,7 +15204,7 @@
         <v>0.7692670226097107</v>
       </c>
       <c r="F568" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569">
@@ -15220,7 +15220,7 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>转科科别</t>
         </is>
       </c>
       <c r="D569" t="n">
@@ -15230,7 +15230,7 @@
         <v>0.7840008735656738</v>
       </c>
       <c r="F569" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570">
@@ -15246,7 +15246,7 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D570" t="n">
@@ -15272,7 +15272,7 @@
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D571" t="n">
@@ -15298,7 +15298,7 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D572" t="n">
@@ -15324,7 +15324,7 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D573" t="n">
@@ -15334,7 +15334,7 @@
         <v>0.7878063321113586</v>
       </c>
       <c r="F573" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574">
@@ -15350,7 +15350,7 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D574" t="n">
@@ -15360,7 +15360,7 @@
         <v>0.8219442963600159</v>
       </c>
       <c r="F574" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575">
@@ -15376,7 +15376,7 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D575" t="n">
@@ -15402,7 +15402,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D576" t="n">
@@ -15428,7 +15428,7 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D577" t="n">
@@ -15454,7 +15454,7 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D578" t="n">
@@ -15480,7 +15480,7 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D579" t="n">
@@ -15506,7 +15506,7 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D580" t="n">
@@ -15532,7 +15532,7 @@
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>首次诊断肺动脉高压时间（年/月/日）</t>
         </is>
       </c>
       <c r="D581" t="n">
@@ -15558,7 +15558,7 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D582" t="n">
@@ -15584,7 +15584,7 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D583" t="n">
@@ -15610,7 +15610,7 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>体重</t>
         </is>
       </c>
       <c r="D584" t="n">
@@ -15636,7 +15636,7 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D585" t="n">
@@ -15646,7 +15646,7 @@
         <v>0.8146235346794128</v>
       </c>
       <c r="F585" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586">
@@ -15662,7 +15662,7 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D586" t="n">
@@ -15672,7 +15672,7 @@
         <v>0.8408663868904114</v>
       </c>
       <c r="F586" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>体重</t>
         </is>
       </c>
       <c r="D587" t="n">
@@ -15740,7 +15740,7 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>体重</t>
         </is>
       </c>
       <c r="D589" t="n">
@@ -15792,7 +15792,7 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>转科科别</t>
         </is>
       </c>
       <c r="D591" t="n">
@@ -15802,7 +15802,7 @@
         <v>0.8217184543609619</v>
       </c>
       <c r="F591" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592">
@@ -15818,7 +15818,7 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院科室名称（科别）</t>
         </is>
       </c>
       <c r="D592" t="n">
@@ -15844,7 +15844,7 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D593" t="n">
@@ -15870,7 +15870,7 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D594" t="n">
@@ -15896,7 +15896,7 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>体重</t>
         </is>
       </c>
       <c r="D595" t="n">
@@ -15922,7 +15922,7 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D596" t="n">
@@ -15948,7 +15948,7 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D597" t="n">
@@ -15958,7 +15958,7 @@
         <v>0.7734721302986145</v>
       </c>
       <c r="F597" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598">
@@ -15974,7 +15974,7 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D598" t="n">
@@ -15984,7 +15984,7 @@
         <v>0.788949191570282</v>
       </c>
       <c r="F598" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599">
@@ -16000,7 +16000,7 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D599" t="n">
@@ -16026,7 +16026,7 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D600" t="n">
@@ -16052,7 +16052,7 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D601" t="n">
@@ -16078,7 +16078,7 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D602" t="n">
@@ -16104,7 +16104,7 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D603" t="n">
@@ -16130,7 +16130,7 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D604" t="n">
@@ -16156,7 +16156,7 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D605" t="n">
@@ -16182,7 +16182,7 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D606" t="n">
@@ -16208,7 +16208,7 @@
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D607" t="n">
@@ -16234,7 +16234,7 @@
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D608" t="n">
@@ -16260,7 +16260,7 @@
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D609" t="n">
@@ -16286,7 +16286,7 @@
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D610" t="n">
@@ -16296,7 +16296,7 @@
         <v>0.7951387763023376</v>
       </c>
       <c r="F610" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D611" t="n">
@@ -16338,7 +16338,7 @@
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D612" t="n">
@@ -16364,7 +16364,7 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D613" t="n">
@@ -16390,7 +16390,7 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D614" t="n">
@@ -16416,7 +16416,7 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D615" t="n">
@@ -16442,7 +16442,7 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D616" t="n">
@@ -16468,7 +16468,7 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D617" t="n">
@@ -16494,7 +16494,7 @@
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D618" t="n">
@@ -16520,7 +16520,7 @@
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D619" t="n">
@@ -16546,7 +16546,7 @@
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D620" t="n">
@@ -16572,7 +16572,7 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D621" t="n">
@@ -16598,7 +16598,7 @@
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D622" t="n">
@@ -16608,7 +16608,7 @@
         <v>0.8266581892967224</v>
       </c>
       <c r="F622" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623">
@@ -16624,7 +16624,7 @@
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D623" t="n">
@@ -16650,7 +16650,7 @@
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D624" t="n">
@@ -16676,7 +16676,7 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D625" t="n">
@@ -16702,7 +16702,7 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D626" t="n">
@@ -16728,7 +16728,7 @@
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D627" t="n">
@@ -16754,7 +16754,7 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>转科科别</t>
         </is>
       </c>
       <c r="D628" t="n">
@@ -16780,7 +16780,7 @@
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D629" t="n">
@@ -16806,7 +16806,7 @@
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D630" t="n">
@@ -16832,7 +16832,7 @@
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D631" t="n">
@@ -16858,7 +16858,7 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D632" t="n">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D633" t="n">
@@ -16894,7 +16894,7 @@
         <v>0.7914959788322449</v>
       </c>
       <c r="F633" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634">
@@ -16910,7 +16910,7 @@
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D634" t="n">
@@ -16920,7 +16920,7 @@
         <v>0.8140625953674316</v>
       </c>
       <c r="F634" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635">
@@ -16936,7 +16936,7 @@
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D635" t="n">
@@ -16962,7 +16962,7 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D636" t="n">
@@ -16988,7 +16988,7 @@
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D637" t="n">
@@ -17040,7 +17040,7 @@
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D639" t="n">
@@ -17066,7 +17066,7 @@
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院科室名称（科别）</t>
         </is>
       </c>
       <c r="D640" t="n">
@@ -17076,7 +17076,7 @@
         <v>0.7540532946586609</v>
       </c>
       <c r="F640" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641">
@@ -17092,7 +17092,7 @@
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>内科</t>
         </is>
       </c>
       <c r="D641" t="n">
@@ -17118,7 +17118,7 @@
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>姓名缩写</t>
         </is>
       </c>
       <c r="D642" t="n">
@@ -17144,7 +17144,7 @@
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D643" t="n">
@@ -17170,7 +17170,7 @@
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D644" t="n">
@@ -17196,7 +17196,7 @@
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D645" t="n">
@@ -17222,7 +17222,7 @@
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D646" t="n">
@@ -17232,7 +17232,7 @@
         <v>0.8239717483520508</v>
       </c>
       <c r="F646" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647">
@@ -17248,7 +17248,7 @@
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D647" t="n">
@@ -17274,7 +17274,7 @@
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D648" t="n">
@@ -17300,7 +17300,7 @@
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D649" t="n">
@@ -17326,7 +17326,7 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D650" t="n">
@@ -17352,7 +17352,7 @@
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D651" t="n">
@@ -17378,7 +17378,7 @@
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D652" t="n">
@@ -17404,7 +17404,7 @@
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D653" t="n">
@@ -17430,7 +17430,7 @@
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D654" t="n">
@@ -17456,7 +17456,7 @@
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D655" t="n">
@@ -17482,7 +17482,7 @@
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D656" t="n">
@@ -17508,7 +17508,7 @@
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D657" t="n">
@@ -17534,7 +17534,7 @@
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D658" t="n">
@@ -17544,7 +17544,7 @@
         <v>0.7961470484733582</v>
       </c>
       <c r="F658" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D659" t="n">
@@ -17586,7 +17586,7 @@
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D660" t="n">
@@ -17612,7 +17612,7 @@
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D661" t="n">
@@ -17638,7 +17638,7 @@
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D662" t="n">
@@ -17664,7 +17664,7 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D663" t="n">
@@ -17690,7 +17690,7 @@
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D664" t="n">
@@ -17716,7 +17716,7 @@
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D665" t="n">
@@ -17742,7 +17742,7 @@
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D666" t="n">
@@ -17768,7 +17768,7 @@
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D667" t="n">
@@ -17794,7 +17794,7 @@
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D668" t="n">
@@ -17820,7 +17820,7 @@
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D669" t="n">
@@ -17846,7 +17846,7 @@
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D670" t="n">
@@ -17856,7 +17856,7 @@
         <v>0.7951724529266357</v>
       </c>
       <c r="F670" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671">
@@ -17872,7 +17872,7 @@
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D671" t="n">
@@ -17898,7 +17898,7 @@
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D672" t="n">
@@ -17924,7 +17924,7 @@
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D673" t="n">
@@ -17976,7 +17976,7 @@
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D675" t="n">
@@ -18002,7 +18002,7 @@
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D676" t="n">
@@ -18028,7 +18028,7 @@
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>内科</t>
         </is>
       </c>
       <c r="D677" t="n">
@@ -18054,7 +18054,7 @@
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D678" t="n">
@@ -18080,7 +18080,7 @@
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D679" t="n">
@@ -18106,7 +18106,7 @@
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D680" t="n">
@@ -18132,7 +18132,7 @@
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D681" t="n">
@@ -18142,7 +18142,7 @@
         <v>0.7923567891120911</v>
       </c>
       <c r="F681" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682">
@@ -18158,7 +18158,7 @@
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D682" t="n">
@@ -18168,7 +18168,7 @@
         <v>0.804680347442627</v>
       </c>
       <c r="F682" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683">
@@ -18184,7 +18184,7 @@
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D683" t="n">
@@ -18210,7 +18210,7 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D684" t="n">
@@ -18236,7 +18236,7 @@
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D685" t="n">
@@ -18262,7 +18262,7 @@
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D686" t="n">
@@ -18288,7 +18288,7 @@
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D687" t="n">
@@ -18314,7 +18314,7 @@
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D688" t="n">
@@ -18340,7 +18340,7 @@
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>转科科别</t>
         </is>
       </c>
       <c r="D689" t="n">
@@ -18350,7 +18350,7 @@
         <v>0.7730721831321716</v>
       </c>
       <c r="F689" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690">
@@ -18366,7 +18366,7 @@
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D690" t="n">
@@ -18392,7 +18392,7 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D691" t="n">
@@ -18418,7 +18418,7 @@
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D692" t="n">
@@ -18444,7 +18444,7 @@
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D693" t="n">
@@ -18470,7 +18470,7 @@
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D694" t="n">
@@ -18480,7 +18480,7 @@
         <v>0.8016267418861389</v>
       </c>
       <c r="F694" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695">
@@ -18496,7 +18496,7 @@
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D695" t="n">
@@ -18522,7 +18522,7 @@
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D696" t="n">
@@ -18548,7 +18548,7 @@
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D697" t="n">
@@ -18574,7 +18574,7 @@
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D698" t="n">
@@ -18600,7 +18600,7 @@
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D699" t="n">
@@ -18626,7 +18626,7 @@
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院科室名称（科别）</t>
         </is>
       </c>
       <c r="D700" t="n">
@@ -18636,7 +18636,7 @@
         <v>0.7500798106193542</v>
       </c>
       <c r="F700" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701">
@@ -18652,7 +18652,7 @@
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>转科科别</t>
         </is>
       </c>
       <c r="D701" t="n">
@@ -18662,7 +18662,7 @@
         <v>0.7714371681213379</v>
       </c>
       <c r="F701" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702">
@@ -18678,7 +18678,7 @@
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D702" t="n">
@@ -18704,7 +18704,7 @@
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D703" t="n">
@@ -18730,7 +18730,7 @@
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>外科</t>
         </is>
       </c>
       <c r="D704" t="n">
@@ -18740,7 +18740,7 @@
         <v>0.8264347910881042</v>
       </c>
       <c r="F704" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705">
@@ -18756,7 +18756,7 @@
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他外科科室</t>
         </is>
       </c>
       <c r="D705" t="n">
@@ -18766,7 +18766,7 @@
         <v>0.8006413578987122</v>
       </c>
       <c r="F705" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706">
@@ -18782,7 +18782,7 @@
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>实际住院天数</t>
         </is>
       </c>
       <c r="D706" t="n">
@@ -18792,7 +18792,7 @@
         <v>0.7217651009559631</v>
       </c>
       <c r="F706" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707">
@@ -18808,7 +18808,7 @@
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>住院总费用</t>
         </is>
       </c>
       <c r="D707" t="n">
@@ -18818,7 +18818,7 @@
         <v>0.7234420776367188</v>
       </c>
       <c r="F707" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708">
@@ -18834,7 +18834,7 @@
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>外科</t>
         </is>
       </c>
       <c r="D708" t="n">
@@ -18844,7 +18844,7 @@
         <v>0.9986839294433594</v>
       </c>
       <c r="F708" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709">
@@ -18860,7 +18860,7 @@
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他内科科室</t>
         </is>
       </c>
       <c r="D709" t="n">
@@ -18870,7 +18870,7 @@
         <v>0.9959060549736023</v>
       </c>
       <c r="F709" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710">
@@ -18886,7 +18886,7 @@
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他内科科室</t>
         </is>
       </c>
       <c r="D710" t="n">
@@ -18896,7 +18896,7 @@
         <v>0.7875234484672546</v>
       </c>
       <c r="F710" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711">
@@ -18912,7 +18912,7 @@
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他内科科室</t>
         </is>
       </c>
       <c r="D711" t="n">
@@ -18922,7 +18922,7 @@
         <v>0.9616683125495911</v>
       </c>
       <c r="F711" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712">
@@ -18938,7 +18938,7 @@
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他内科科室</t>
         </is>
       </c>
       <c r="D712" t="n">
@@ -18948,7 +18948,7 @@
         <v>0.9616683125495911</v>
       </c>
       <c r="F712" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713">
@@ -18964,7 +18964,7 @@
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>婚姻状况</t>
         </is>
       </c>
       <c r="D713" t="n">
@@ -18990,7 +18990,7 @@
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D714" t="n">
@@ -19000,7 +19000,7 @@
         <v>0.7374375462532043</v>
       </c>
       <c r="F714" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715">
@@ -19016,7 +19016,7 @@
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D715" t="n">
@@ -19026,7 +19026,7 @@
         <v>0.7162668108940125</v>
       </c>
       <c r="F715" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716">
@@ -19042,7 +19042,7 @@
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D716" t="n">
@@ -19068,7 +19068,7 @@
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D717" t="n">
@@ -19094,7 +19094,7 @@
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D718" t="n">
@@ -19146,7 +19146,7 @@
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出生日期</t>
         </is>
       </c>
       <c r="D720" t="n">
@@ -19172,7 +19172,7 @@
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>入院时间</t>
         </is>
       </c>
       <c r="D721" t="n">
@@ -19198,7 +19198,7 @@
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>入院时间</t>
         </is>
       </c>
       <c r="D722" t="n">
@@ -19224,7 +19224,7 @@
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>入院时间</t>
         </is>
       </c>
       <c r="D723" t="n">
@@ -19250,7 +19250,7 @@
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>入院时间</t>
         </is>
       </c>
       <c r="D724" t="n">
@@ -19276,7 +19276,7 @@
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>入院时间</t>
         </is>
       </c>
       <c r="D725" t="n">
@@ -19302,7 +19302,7 @@
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>外科</t>
         </is>
       </c>
       <c r="D726" t="n">
@@ -19312,7 +19312,7 @@
         <v>0.8109820485115051</v>
       </c>
       <c r="F726" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727">
@@ -19328,7 +19328,7 @@
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>内科</t>
         </is>
       </c>
       <c r="D727" t="n">
@@ -19338,7 +19338,7 @@
         <v>0.9032802581787109</v>
       </c>
       <c r="F727" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728">
@@ -19354,7 +19354,7 @@
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>入院时间</t>
         </is>
       </c>
       <c r="D728" t="n">
@@ -19380,7 +19380,7 @@
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D729" t="n">
@@ -19390,7 +19390,7 @@
         <v>0.7853102684020996</v>
       </c>
       <c r="F729" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730">
@@ -19406,7 +19406,7 @@
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>内科</t>
         </is>
       </c>
       <c r="D730" t="n">
@@ -19416,7 +19416,7 @@
         <v>0.8659250736236572</v>
       </c>
       <c r="F730" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731">
@@ -19432,7 +19432,7 @@
       </c>
       <c r="C731" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>入院时间</t>
         </is>
       </c>
       <c r="D731" t="n">
@@ -19458,7 +19458,7 @@
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D732" t="n">
@@ -19468,7 +19468,7 @@
         <v>0.7636696696281433</v>
       </c>
       <c r="F732" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733">
@@ -19510,7 +19510,7 @@
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>入院时间</t>
         </is>
       </c>
       <c r="D734" t="n">
@@ -19536,7 +19536,7 @@
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D735" t="n">
@@ -19546,7 +19546,7 @@
         <v>0.781872570514679</v>
       </c>
       <c r="F735" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736">
@@ -19562,7 +19562,7 @@
       </c>
       <c r="C736" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>内科</t>
         </is>
       </c>
       <c r="D736" t="n">
@@ -19588,7 +19588,7 @@
       </c>
       <c r="C737" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>入院时间</t>
         </is>
       </c>
       <c r="D737" t="n">
@@ -19614,7 +19614,7 @@
       </c>
       <c r="C738" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>请说明</t>
         </is>
       </c>
       <c r="D738" t="n">
@@ -19624,7 +19624,7 @@
         <v>0.780968189239502</v>
       </c>
       <c r="F738" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739">
@@ -19666,7 +19666,7 @@
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>入院科室</t>
         </is>
       </c>
       <c r="D740" t="n">
@@ -19692,7 +19692,7 @@
       </c>
       <c r="C741" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>入院科室</t>
         </is>
       </c>
       <c r="D741" t="n">
@@ -19718,7 +19718,7 @@
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>外科</t>
         </is>
       </c>
       <c r="D742" t="n">
@@ -19728,7 +19728,7 @@
         <v>0.9973676800727844</v>
       </c>
       <c r="F742" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743">
@@ -19744,7 +19744,7 @@
       </c>
       <c r="C743" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他内科科室</t>
         </is>
       </c>
       <c r="D743" t="n">
@@ -19754,7 +19754,7 @@
         <v>0.8311183452606201</v>
       </c>
       <c r="F743" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744">
@@ -19770,7 +19770,7 @@
       </c>
       <c r="C744" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>实际住院天数</t>
         </is>
       </c>
       <c r="D744" t="n">
@@ -19822,7 +19822,7 @@
       </c>
       <c r="C746" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>住院总费用</t>
         </is>
       </c>
       <c r="D746" t="n">
@@ -19832,7 +19832,7 @@
         <v>0.8554185032844543</v>
       </c>
       <c r="F746" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747">
@@ -19848,7 +19848,7 @@
       </c>
       <c r="C747" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>外科</t>
         </is>
       </c>
       <c r="D747" t="n">
@@ -19900,7 +19900,7 @@
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>外科</t>
         </is>
       </c>
       <c r="D749" t="n">
@@ -19926,7 +19926,7 @@
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>确诊日期（年/月/日）</t>
         </is>
       </c>
       <c r="D750" t="n">
@@ -19952,7 +19952,7 @@
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>就诊日期（年/月/日）</t>
         </is>
       </c>
       <c r="D751" t="n">
@@ -20004,7 +20004,7 @@
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>实际住院天数</t>
         </is>
       </c>
       <c r="D753" t="n">
@@ -20030,7 +20030,7 @@
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D754" t="n">
@@ -20082,7 +20082,7 @@
       </c>
       <c r="C756" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D756" t="n">
@@ -20134,7 +20134,7 @@
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>实际住院天数</t>
         </is>
       </c>
       <c r="D758" t="n">
@@ -20160,7 +20160,7 @@
       </c>
       <c r="C759" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>首次确诊CTEPH时间（年/月/日）</t>
         </is>
       </c>
       <c r="D759" t="n">
@@ -20290,7 +20290,7 @@
       </c>
       <c r="C764" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>外科</t>
         </is>
       </c>
       <c r="D764" t="n">
@@ -20316,7 +20316,7 @@
       </c>
       <c r="C765" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>外科</t>
         </is>
       </c>
       <c r="D765" t="n">
@@ -20342,7 +20342,7 @@
       </c>
       <c r="C766" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院31天再住院计划目的</t>
         </is>
       </c>
       <c r="D766" t="n">
@@ -20352,7 +20352,7 @@
         <v>0.8462404608726501</v>
       </c>
       <c r="F766" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767">
@@ -20394,7 +20394,7 @@
       </c>
       <c r="C768" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D768" t="n">
@@ -20420,7 +20420,7 @@
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>受试者编号</t>
         </is>
       </c>
       <c r="D769" t="n">
@@ -20446,7 +20446,7 @@
       </c>
       <c r="C770" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D770" t="n">
@@ -20456,7 +20456,7 @@
         <v>0.8725144267082214</v>
       </c>
       <c r="F770" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771">
@@ -20472,7 +20472,7 @@
       </c>
       <c r="C771" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>外科</t>
         </is>
       </c>
       <c r="D771" t="n">

--- a/匹配结果对比.xlsx
+++ b/匹配结果对比.xlsx
@@ -5366,7 +5366,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>内科</t>
         </is>
       </c>
       <c r="D190" t="n">
@@ -5886,7 +5886,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>其他外科科室</t>
+          <t>外科</t>
         </is>
       </c>
       <c r="D210" t="n">
@@ -6354,7 +6354,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D228" t="n">
@@ -6432,7 +6432,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D231" t="n">
@@ -6796,7 +6796,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>内科</t>
+          <t>转科科别</t>
         </is>
       </c>
       <c r="D245" t="n">
@@ -6806,7 +6806,7 @@
         <v>0.8218323588371277</v>
       </c>
       <c r="F245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -7108,7 +7108,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>内科</t>
+          <t>转科科别</t>
         </is>
       </c>
       <c r="D257" t="n">
@@ -7118,7 +7118,7 @@
         <v>0.8015687465667725</v>
       </c>
       <c r="F257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -7628,7 +7628,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>转科科别</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D277" t="n">
@@ -7992,7 +7992,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D291" t="n">
@@ -10800,7 +10800,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D399" t="n">
@@ -10826,7 +10826,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>出院科室名称（科别）</t>
+          <t>转科科别</t>
         </is>
       </c>
       <c r="D400" t="n">
@@ -10836,7 +10836,7 @@
         <v>0.738898754119873</v>
       </c>
       <c r="F400" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
@@ -11762,7 +11762,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>出院科室名称（科别）</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D436" t="n">
@@ -11772,7 +11772,7 @@
         <v>0.7627785801887512</v>
       </c>
       <c r="F436" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437">
@@ -14258,7 +14258,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>出院科室名称（科别）</t>
+          <t>转科科别</t>
         </is>
       </c>
       <c r="D532" t="n">
@@ -14268,7 +14268,7 @@
         <v>0.7801027297973633</v>
       </c>
       <c r="F532" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533">
@@ -14882,7 +14882,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>转科科别</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D556" t="n">
@@ -14960,7 +14960,7 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>是否转科</t>
         </is>
       </c>
       <c r="D559" t="n">
@@ -16702,7 +16702,7 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>是否转科</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D626" t="n">
@@ -16754,7 +16754,7 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>转科科别</t>
+          <t>出院时间</t>
         </is>
       </c>
       <c r="D628" t="n">
@@ -20108,7 +20108,7 @@
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>发病日期（年/月/日）</t>
         </is>
       </c>
       <c r="D757" t="n">
@@ -20264,7 +20264,7 @@
       </c>
       <c r="C763" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>离院方式</t>
         </is>
       </c>
       <c r="D763" t="n">
